--- a/spring-2025/cecs-323/clos.xlsx
+++ b/spring-2025/cecs-323/clos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ca/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ca/development/college/spring-2025/cecs-323/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8D6157-9158-294E-B83C-9B49FC2587E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C55512C-8826-6C4C-B68B-C20CB5A828C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="163" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E2" s="7">
         <f>(B$1=D2)+(B$6=D2)+(B$10=D2)+(B$14=D2)+(B$18=D2)+(B$22=D2)+(B$26=D2)+(B$31=D2)+(B$36=D2)+(B$41=D2)+(B$45=D2)+(B$49=D2)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>67</v>
@@ -748,7 +748,7 @@
       </c>
       <c r="E5" s="7">
         <f>(B$1=D5)+(B$6=D5)+(B$10=D5)+(B$14=D5)+(B$18=D5)+(B$22=D5)+(B$26=D5)+(B$31=D5)+(B$36=D5)+(B$41=D5)+(B$45=D5)+(B$49=D5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13">
@@ -757,7 +757,7 @@
       </c>
       <c r="B6" s="2">
         <f>ROUND(AVERAGE(B7:B9),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>13</v>
@@ -767,7 +767,7 @@
       </c>
       <c r="E6" s="7">
         <f>(B$1=D6)+(B$6=D6)+(B$10=D6)+(B$14=D6)+(B$18=D6)+(B$22=D6)+(B$26=D6)+(B$31=D6)+(B$36=D6)+(B$41=D6)+(B$45=D6)+(B$49=D6)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13">
@@ -775,7 +775,7 @@
         <v>2.1</v>
       </c>
       <c r="B7" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>47</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="B10" s="2">
         <f>ROUND(AVERAGE(B11:B13),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>15</v>
@@ -829,7 +829,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="str">
         <f>IF(AND(B1&gt;=3, B6&gt;=3, B10&gt;=3, B14&gt;=3, B22&gt;=3, B26&gt;=3, B50&gt;=3, E3+E2&gt;=9, E9&lt;&gt;"B", E8&lt;&gt;"A"), "C", "")</f>
-        <v/>
+        <v>C</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
@@ -853,7 +853,7 @@
         <v>3.2</v>
       </c>
       <c r="B12" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>52</v>
@@ -861,7 +861,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="str">
         <f>IF(E$2+E$3&lt;6, "F", "")</f>
-        <v>F</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -881,7 +881,7 @@
       </c>
       <c r="B14" s="2">
         <f>ROUND(AVERAGE(B15:B17),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -892,7 +892,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B15" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>17</v>
@@ -903,7 +903,7 @@
         <v>4.2</v>
       </c>
       <c r="B16" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>18</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="B18" s="2">
         <f>ROUND(AVERAGE(B19:B21),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>45</v>
@@ -937,7 +937,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>19</v>
@@ -948,7 +948,7 @@
         <v>5.2</v>
       </c>
       <c r="B20" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>20</v>
@@ -959,7 +959,7 @@
         <v>5.3</v>
       </c>
       <c r="B21" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>64</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="B22" s="2">
         <f>ROUND(AVERAGE(B23:B25),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>44</v>
@@ -982,7 +982,7 @@
         <v>6.1</v>
       </c>
       <c r="B23" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>21</v>
@@ -993,7 +993,7 @@
         <v>6.2</v>
       </c>
       <c r="B24" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>36</v>
@@ -1004,7 +1004,7 @@
         <v>6.3</v>
       </c>
       <c r="B25" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>55</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B26" s="2">
         <f>ROUND(AVERAGE(B27:B30),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>22</v>
@@ -1027,7 +1027,7 @@
         <v>7.1</v>
       </c>
       <c r="B27" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>39</v>
@@ -1038,7 +1038,7 @@
         <v>7.2</v>
       </c>
       <c r="B28" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>7.3</v>
       </c>
       <c r="B29" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>40</v>
@@ -1060,7 +1060,7 @@
         <v>7.4</v>
       </c>
       <c r="B30" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>56</v>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B31" s="2">
         <f>ROUND(AVERAGE(B32:B35),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>38</v>
@@ -1083,7 +1083,7 @@
         <v>8.1</v>
       </c>
       <c r="B32" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>42</v>
@@ -1094,7 +1094,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B33" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>57</v>
@@ -1105,7 +1105,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B34" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>43</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B36" s="2">
         <f>ROUND(AVERAGE(B37:B40),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>24</v>
@@ -1172,7 +1172,7 @@
         <v>9.4</v>
       </c>
       <c r="B40" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>59</v>
@@ -1251,7 +1251,7 @@
         <v>11.2</v>
       </c>
       <c r="B47" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>62</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B49" s="2">
         <f>ROUND(AVERAGE(B50:B51),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>31</v>
@@ -1285,7 +1285,7 @@
         <v>12.1</v>
       </c>
       <c r="B50" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>35</v>
@@ -1296,14 +1296,14 @@
         <v>12.2</v>
       </c>
       <c r="B51" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B10 B14 B18 B22 B26">
+  <conditionalFormatting sqref="B6 B1 B10 B14 B18 B22 B26">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1364,6 +1364,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2037,7 +2038,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="B1 B6 B10 B14 B18 B22 B26">
+  <conditionalFormatting sqref="B6 B1 B10 B14 B18 B22 B26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/spring-2025/cecs-323/clos.xlsx
+++ b/spring-2025/cecs-323/clos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ca/development/college/spring-2025/cecs-323/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C55512C-8826-6C4C-B68B-C20CB5A828C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDE7AA9-11F5-A14E-BD09-5645AC355EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Demo" sheetId="5" r:id="rId2"/>
+    <sheet name="Demo" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>CLO 1</t>
   </si>
@@ -126,24 +126,12 @@
     <t>Transaction Management</t>
   </si>
   <si>
-    <t>CLO 12</t>
-  </si>
-  <si>
-    <t>Data Life Cycle</t>
-  </si>
-  <si>
     <t>MongoDB $group</t>
   </si>
   <si>
-    <t>SQL Recursion</t>
-  </si>
-  <si>
     <t>SQL Set Operators</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Life Cycle </t>
-  </si>
-  <si>
     <t>MongoDB $lookup</t>
   </si>
   <si>
@@ -222,16 +210,10 @@
     <t>ACID</t>
   </si>
   <si>
-    <t>BASE &amp; comparison</t>
-  </si>
-  <si>
     <t>Transaction Management - Exam</t>
   </si>
   <si>
     <t>Object Relation/Document Constraints - Exam</t>
-  </si>
-  <si>
-    <t>Data Life Cycle - Exam</t>
   </si>
   <si>
     <t>Class Points Ranking</t>
@@ -639,10 +621,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="163" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -670,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13">
@@ -681,17 +663,20 @@
         <v>4</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6">
         <v>4</v>
       </c>
       <c r="E2" s="7">
-        <f>(B$1=D2)+(B$6=D2)+(B$10=D2)+(B$14=D2)+(B$18=D2)+(B$22=D2)+(B$26=D2)+(B$31=D2)+(B$36=D2)+(B$41=D2)+(B$45=D2)+(B$49=D2)</f>
+        <f>(B$1=D2)+(B$6=D2)+(B$10=D2)+(B$14=D2)+(B$18=D2)+(B$22=D2)+(B$26=D2)+(B$31=D2)+(B$36=D2)+(B$41=D2)+(B$44=D2)</f>
         <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13">
@@ -708,11 +693,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <f>(B$1=D3)+(B$6=D3)+(B$10=D3)+(B$14=D3)+(B$18=D3)+(B$22=D3)+(B$26=D3)+(B$31=D3)+(B$36=D3)+(B$41=D3)+(B$45=D3)+(B$49=D3)</f>
+        <f>(B$1=D3)+(B$6=D3)+(B$10=D3)+(B$14=D3)+(B$18=D3)+(B$22=D3)+(B$26=D3)+(B$31=D3)+(B$36=D3)+(B$41=D3)+(B$44=D3)</f>
         <v>3</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13">
@@ -723,14 +708,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" s="7">
-        <f>(B$1=D4)+(B$6=D4)+(B$10=D4)+(B$14=D4)+(B$18=D4)+(B$22=D4)+(B$26=D4)+(B$31=D4)+(B$36=D4)+(B$41=D4)+(B$45=D4)+(B$49=D4)</f>
-        <v>0</v>
+        <f>(B$1=D4)+(B$6=D4)+(B$10=D4)+(B$14=D4)+(B$18=D4)+(B$22=D4)+(B$26=D4)+(B$31=D4)+(B$36=D4)+(B$41=D4)+(B$44=D4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13">
@@ -741,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <f>(B$1=D5)+(B$6=D5)+(B$10=D5)+(B$14=D5)+(B$18=D5)+(B$22=D5)+(B$26=D5)+(B$31=D5)+(B$36=D5)+(B$41=D5)+(B$45=D5)+(B$49=D5)</f>
+        <f>(B$1=D5)+(B$6=D5)+(B$10=D5)+(B$14=D5)+(B$18=D5)+(B$22=D5)+(B$26=D5)+(B$31=D5)+(B$36=D5)+(B$41=D5)+(B$44=D5)</f>
         <v>1</v>
       </c>
     </row>
@@ -766,8 +751,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>(B$1=D6)+(B$6=D6)+(B$10=D6)+(B$14=D6)+(B$18=D6)+(B$22=D6)+(B$26=D6)+(B$31=D6)+(B$36=D6)+(B$41=D6)+(B$45=D6)+(B$49=D6)</f>
-        <v>2</v>
+        <f>(B$1=D6)+(B$6=D6)+(B$10=D6)+(B$14=D6)+(B$18=D6)+(B$22=D6)+(B$26=D6)+(B$31=D6)+(B$36=D6)+(B$41=D6)+(B$44=D6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13">
@@ -778,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13">
@@ -795,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f>IF(AND(E$3+E$2&gt;=12, E$2&gt;=7, G2&lt;&gt;""), "A", "")</f>
+        <f>IF(AND(E$3+E$2&gt;=11, E$2&gt;=6, G2&lt;&gt;""), "A", "")</f>
         <v/>
       </c>
     </row>
@@ -807,11 +792,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="str">
-        <f>IF(AND(E$8 &lt;&gt; "A", E$3 + E$2=12, OR(G3 &lt;&gt;"", G2 &lt;&gt;"")), "B", "")</f>
+        <f>IF(AND(E$8 &lt;&gt; "A", E$3 + E$2=11, OR(G3 &lt;&gt;"", G2 &lt;&gt;"")), "B", "")</f>
         <v/>
       </c>
     </row>
@@ -828,7 +813,7 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="str">
-        <f>IF(AND(B1&gt;=3, B6&gt;=3, B10&gt;=3, B14&gt;=3, B22&gt;=3, B26&gt;=3, B50&gt;=3, E3+E2&gt;=9, E9&lt;&gt;"B", E8&lt;&gt;"A"), "C", "")</f>
+        <f>IF(AND(B1&gt;=3, B6&gt;=3, B10&gt;=3, B14&gt;=3, B22&gt;=3, B26&gt;=3, E3+E2&gt;=8, E9&lt;&gt;"B", E8&lt;&gt;"A"), "C", "")</f>
         <v>C</v>
       </c>
     </row>
@@ -840,11 +825,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="str">
-        <f>IF(AND(E8 &lt;&gt;"A", E9&lt;&gt;"B", E10&lt;&gt;"C", E2+E3&gt;5), "D", "")</f>
+        <f>IF(AND(E8 &lt;&gt;"A", E9&lt;&gt;"B", E10&lt;&gt;"C", E2+E3&gt;4), "D", "")</f>
         <v/>
       </c>
     </row>
@@ -856,11 +841,11 @@
         <v>4</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="str">
-        <f>IF(E$2+E$3&lt;6, "F", "")</f>
+        <f>IF(E$2+E$3&lt;5, "F", "")</f>
         <v/>
       </c>
     </row>
@@ -872,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -917,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13">
@@ -929,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13">
@@ -962,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13">
@@ -974,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13">
@@ -996,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13">
@@ -1007,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13">
@@ -1030,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13">
@@ -1041,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13">
@@ -1052,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13">
@@ -1063,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13">
@@ -1072,10 +1057,10 @@
       </c>
       <c r="B31" s="2">
         <f>ROUND(AVERAGE(B32:B35),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13">
@@ -1086,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13">
@@ -1097,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13">
@@ -1108,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13">
@@ -1116,10 +1101,10 @@
         <v>8.4</v>
       </c>
       <c r="B35" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13">
@@ -1164,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13">
@@ -1175,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13">
@@ -1183,11 +1168,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="2">
-        <f>ROUND(AVERAGE(B42:B44), 0)</f>
-        <v>0</v>
+        <f>ROUND(AVERAGE(B42:B43), 0)</f>
+        <v>2</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -1198,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -1206,100 +1191,44 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B43" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="18">
-        <v>10.3</v>
-      </c>
-      <c r="B44" s="16">
-        <v>0</v>
+      <c r="A44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2">
+        <f>ROUND(AVERAGE(B45:B46),0)</f>
+        <v>3</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2">
-        <f>ROUND(AVERAGE(B46:B46),0)</f>
-        <v>0</v>
+      <c r="A45" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="B45" s="16">
+        <v>4</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="3">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="B46" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="B47" s="16">
-        <v>4</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="B48" s="16">
-        <v>0</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="2">
-        <f>ROUND(AVERAGE(B50:B51),0)</f>
-        <v>4</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="B50" s="16">
-        <v>4</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="B51" s="16">
-        <v>4</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B44">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1353,27 +1282,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51765128-63B0-472B-A1E9-5566F801AF45}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE384945-C01F-42ED-8A0B-33AA33970146}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13"/>
@@ -1389,7 +1307,7 @@
       </c>
       <c r="B1" s="2">
         <f>ROUND(AVERAGE(B2:B5),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
@@ -1401,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1412,20 +1330,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6">
         <v>4</v>
       </c>
       <c r="E2" s="7">
-        <f>(B$1=D2)+(B$6=D2)+(B$10=D2)+(B$14=D2)+(B$18=D2)+(B$22=D2)+(B$26=D2)+(B$31=D2)+(B$36=D2)+(B$41=D2)+(B$45=D2)+(B$49=D2)</f>
-        <v>6</v>
+        <f>(B$1=D2)+(B$6=D2)+(B$10=D2)+(B$14=D2)+(B$18=D2)+(B$22=D2)+(B$26=D2)+(B$31=D2)+(B$36=D2)+(B$41=D2)+(B$44=D2)</f>
+        <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1442,11 +1357,14 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <f>(B$1=D3)+(B$6=D3)+(B$10=D3)+(B$14=D3)+(B$18=D3)+(B$22=D3)+(B$26=D3)+(B$31=D3)+(B$36=D3)+(B$41=D3)+(B$45=D3)+(B$49=D3)</f>
-        <v>6</v>
+        <f>(B$1=D3)+(B$6=D3)+(B$10=D3)+(B$14=D3)+(B$18=D3)+(B$22=D3)+(B$26=D3)+(B$31=D3)+(B$36=D3)+(B$41=D3)+(B$44=D3)</f>
+        <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1454,17 +1372,17 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" s="7">
-        <f>(B$1=D4)+(B$6=D4)+(B$10=D4)+(B$14=D4)+(B$18=D4)+(B$22=D4)+(B$26=D4)+(B$31=D4)+(B$36=D4)+(B$41=D4)+(B$45=D4)+(B$49=D4)</f>
-        <v>0</v>
+        <f>(B$1=D4)+(B$6=D4)+(B$10=D4)+(B$14=D4)+(B$18=D4)+(B$22=D4)+(B$26=D4)+(B$31=D4)+(B$36=D4)+(B$41=D4)+(B$44=D4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1472,16 +1390,16 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <f>(B$1=D5)+(B$6=D5)+(B$10=D5)+(B$14=D5)+(B$18=D5)+(B$22=D5)+(B$26=D5)+(B$31=D5)+(B$36=D5)+(B$41=D5)+(B$45=D5)+(B$49=D5)</f>
+        <f>(B$1=D5)+(B$6=D5)+(B$10=D5)+(B$14=D5)+(B$18=D5)+(B$22=D5)+(B$26=D5)+(B$31=D5)+(B$36=D5)+(B$41=D5)+(B$44=D5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>(B$1=D6)+(B$6=D6)+(B$10=D6)+(B$14=D6)+(B$18=D6)+(B$22=D6)+(B$26=D6)+(B$31=D6)+(B$36=D6)+(B$41=D6)+(B$45=D6)+(B$49=D6)</f>
+        <f>(B$1=D6)+(B$6=D6)+(B$10=D6)+(B$14=D6)+(B$18=D6)+(B$22=D6)+(B$26=D6)+(B$31=D6)+(B$36=D6)+(B$41=D6)+(B$44=D6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1512,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1520,7 +1438,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B8" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>14</v>
@@ -1529,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f>IF(AND(E$3+E$2&gt;=12, E$2&gt;=7, G2&lt;&gt;""), "A", "")</f>
+        <f>IF(AND(E$3+E$2&gt;=11, E$2&gt;=6, G2&lt;&gt;""), "A", "")</f>
         <v/>
       </c>
     </row>
@@ -1541,12 +1459,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="str">
-        <f>IF(AND(E$8 &lt;&gt; "A", E$3 + E$2=12, OR(G3 &lt;&gt;"", G2 &lt;&gt;"")), "B", "")</f>
-        <v>B</v>
+        <f>IF(AND(E$8 &lt;&gt; "A", E$3 + E$2=11, OR(G3 &lt;&gt;"", G2 &lt;&gt;"")), "B", "")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1555,15 +1473,15 @@
       </c>
       <c r="B10" s="2">
         <f>ROUND(AVERAGE(B11:B13),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="str">
-        <f>IF(AND(B1&gt;=3, B6&gt;=3, B10&gt;=3, B14&gt;=3, B22&gt;=3, B26&gt;=3, B50&gt;=3, E3+E2&gt;=9, E9&lt;&gt;"B", E8&lt;&gt;"A"), "C", "")</f>
-        <v/>
+        <f>IF(AND(B1&gt;=3, B6&gt;=3, B10&gt;=3, B14&gt;=3, B22&gt;=3, B26&gt;=3, E3+E2&gt;=8, E9&lt;&gt;"B", E8&lt;&gt;"A"), "C", "")</f>
+        <v>C</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1574,11 +1492,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="str">
-        <f>IF(AND(E8 &lt;&gt;"A", E9&lt;&gt;"B", E10&lt;&gt;"C", E2+E3&gt;5), "D", "")</f>
+        <f>IF(AND(E8 &lt;&gt;"A", E9&lt;&gt;"B", E10&lt;&gt;"C", E2+E3&gt;4), "D", "")</f>
         <v/>
       </c>
     </row>
@@ -1590,11 +1508,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="str">
-        <f>IF(E$2+E$3&lt;6, "F", "")</f>
+        <f>IF(E$2+E$3&lt;5, "F", "")</f>
         <v/>
       </c>
     </row>
@@ -1603,10 +1521,10 @@
         <v>3.3</v>
       </c>
       <c r="B13" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1615,7 +1533,7 @@
       </c>
       <c r="B14" s="2">
         <f>ROUND(AVERAGE(B15:B17),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -1626,7 +1544,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B15" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>17</v>
@@ -1637,7 +1555,7 @@
         <v>4.2</v>
       </c>
       <c r="B16" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>18</v>
@@ -1651,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1660,10 +1578,10 @@
       </c>
       <c r="B18" s="2">
         <f>ROUND(AVERAGE(B19:B21),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1671,7 +1589,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>19</v>
@@ -1693,10 +1611,10 @@
         <v>5.3</v>
       </c>
       <c r="B21" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1705,10 +1623,10 @@
       </c>
       <c r="B22" s="2">
         <f>ROUND(AVERAGE(B23:B25),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1727,10 +1645,10 @@
         <v>6.2</v>
       </c>
       <c r="B24" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1738,10 +1656,10 @@
         <v>6.3</v>
       </c>
       <c r="B25" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1750,7 +1668,7 @@
       </c>
       <c r="B26" s="2">
         <f>ROUND(AVERAGE(B27:B30),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>22</v>
@@ -1761,10 +1679,10 @@
         <v>7.1</v>
       </c>
       <c r="B27" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1775,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1786,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1794,10 +1712,10 @@
         <v>7.4</v>
       </c>
       <c r="B30" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1809,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1820,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1828,10 +1746,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B33" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1839,10 +1757,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B34" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1853,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1862,7 +1780,7 @@
       </c>
       <c r="B36" s="2">
         <f>ROUND(AVERAGE(B37:B40),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>24</v>
@@ -1873,7 +1791,7 @@
         <v>9.1</v>
       </c>
       <c r="B37" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>26</v>
@@ -1884,7 +1802,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B38" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>27</v>
@@ -1898,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1906,10 +1824,10 @@
         <v>9.4</v>
       </c>
       <c r="B40" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1917,11 +1835,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="2">
-        <f>ROUND(AVERAGE(B42:B44), 0)</f>
+        <f>ROUND(AVERAGE(B42:B43), 0)</f>
         <v>3</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -1929,117 +1847,63 @@
         <v>10.1</v>
       </c>
       <c r="B42" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="18">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="B43" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="18">
-        <v>10.3</v>
-      </c>
-      <c r="B44" s="16">
-        <v>3</v>
+      <c r="A44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2">
+        <f>ROUND(AVERAGE(B45:B46),0)</f>
+        <v>2</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2">
-        <f>ROUND(AVERAGE(B46:B46),0)</f>
+      <c r="A45" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="B45" s="16">
         <v>3</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="3">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="B46" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="B47" s="16">
-        <v>3</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="B48" s="16">
-        <v>3</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="2">
-        <f>ROUND(AVERAGE(B50:B51),0)</f>
-        <v>3</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="B50" s="16">
-        <v>3</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="B51" s="16">
-        <v>3</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B6 B1 B10 B14 B18 B22 B26">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="4"/>
@@ -2049,7 +1913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="4"/>
@@ -2059,7 +1923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="4"/>
@@ -2069,16 +1933,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2088,7 +1942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+  <conditionalFormatting sqref="B44">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/spring-2025/cecs-323/clos.xlsx
+++ b/spring-2025/cecs-323/clos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ca/development/college/spring-2025/cecs-323/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDE7AA9-11F5-A14E-BD09-5645AC355EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF27EB6-CFF4-FE41-B673-7E06F16F0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="E2" s="7">
         <f>(B$1=D2)+(B$6=D2)+(B$10=D2)+(B$14=D2)+(B$18=D2)+(B$22=D2)+(B$26=D2)+(B$31=D2)+(B$36=D2)+(B$41=D2)+(B$44=D2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>61</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="E4" s="7">
         <f>(B$1=D4)+(B$6=D4)+(B$10=D4)+(B$14=D4)+(B$18=D4)+(B$22=D4)+(B$26=D4)+(B$31=D4)+(B$36=D4)+(B$41=D4)+(B$44=D4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13">
@@ -733,7 +733,7 @@
       </c>
       <c r="E5" s="7">
         <f>(B$1=D5)+(B$6=D5)+(B$10=D5)+(B$14=D5)+(B$18=D5)+(B$22=D5)+(B$26=D5)+(B$31=D5)+(B$36=D5)+(B$41=D5)+(B$44=D5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13">
@@ -781,7 +781,7 @@
       </c>
       <c r="E8" s="10" t="str">
         <f>IF(AND(E$3+E$2&gt;=11, E$2&gt;=6, G2&lt;&gt;""), "A", "")</f>
-        <v/>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13">
@@ -814,7 +814,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="str">
         <f>IF(AND(B1&gt;=3, B6&gt;=3, B10&gt;=3, B14&gt;=3, B22&gt;=3, B26&gt;=3, E3+E2&gt;=8, E9&lt;&gt;"B", E8&lt;&gt;"A"), "C", "")</f>
-        <v>C</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B36" s="2">
         <f>ROUND(AVERAGE(B37:B40),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>24</v>
@@ -1124,7 +1124,7 @@
         <v>9.1</v>
       </c>
       <c r="B37" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>26</v>
@@ -1135,7 +1135,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B38" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>27</v>
@@ -1146,7 +1146,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B39" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>30</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B41" s="2">
         <f>ROUND(AVERAGE(B42:B43), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>33</v>
@@ -1180,7 +1180,7 @@
         <v>10.1</v>
       </c>
       <c r="B42" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>31</v>
